--- a/medicine/Sexualité et sexologie/Brasier_(film)/Brasier_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Brasier_(film)/Brasier_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brasier est un court métrage québécois écrit  par Camille Trudel et réalisé par Emilie Mannering en 2021.
-Il est sélectionné dans plusieurs festivals de cinema tel que le Festival Regard au Canada ou le Festival international du film de Palm Springs[1] ainsi que le Gala Prends Ça Court ! ou il remportera le Prix de la Bande Sonimage[2].
+Il est sélectionné dans plusieurs festivals de cinema tel que le Festival Regard au Canada ou le Festival international du film de Palm Springs ainsi que le Gala Prends Ça Court ! ou il remportera le Prix de la Bande Sonimage.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film raconte l'histoire de la jeune adolescente pierre-Amélia et évoque l'éveil de son désir sexuel lorsqu'elle intègre une équipe de sportives plus âgées.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Brasier
 Titre anglais : Brasier
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Amélia Raposo
 Tiago Freire Brosseau</t>
@@ -621,10 +639,12 @@
           <t>Festivals &amp; distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été présenté en WIP lors d'un Focus au Festival de Cannes en 2021[3] avant d'être présenté en première au Festival REGARD[4] le 25 mars 2022, puis sélectionné dans différents festivals autour du monde tel quel le Festival international de Palm Springs[5],[6] en juin 2022 aux USA, au Festival FanTasia lors duquel il reportera le prix du meilleur scénario ou encore au Gala Prends Ça Court! où il remportera le Prix de la Bande Sonimage. 
-En Aout 2022 le court métrage remportera le prix du  meilleur court métrage québécois aux Percéides [7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été présenté en WIP lors d'un Focus au Festival de Cannes en 2021 avant d'être présenté en première au Festival REGARD le 25 mars 2022, puis sélectionné dans différents festivals autour du monde tel quel le Festival international de Palm Springs, en juin 2022 aux USA, au Festival FanTasia lors duquel il reportera le prix du meilleur scénario ou encore au Gala Prends Ça Court! où il remportera le Prix de la Bande Sonimage. 
+En Aout 2022 le court métrage remportera le prix du  meilleur court métrage québécois aux Percéides .
 </t>
         </is>
       </c>
